--- a/data/Ward_Age/町丁目名年齢年代別人口分布（台東）その１_確認済み.xlsx
+++ b/data/Ward_Age/町丁目名年齢年代別人口分布（台東）その１_確認済み.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mori/Work/Tokyo_Ward_Assembly_Election/data/Ward_Age/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mori/Documents/Devel/Tokyo_Ward_Assembly_Election/data/Ward_Age/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90AB9D7-488E-4845-A9F1-E03332C3850C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4D1E98-4DE9-E14D-AF48-463EAA3ACC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="13760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="13760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>行政コード</t>
   </si>
@@ -88,30 +88,15 @@
     <t>95~99歳</t>
   </si>
   <si>
-    <t>100歳~104歳</t>
-  </si>
-  <si>
-    <t>110歳以上</t>
-  </si>
-  <si>
     <t>000111</t>
   </si>
   <si>
-    <t>台東1丁目</t>
-  </si>
-  <si>
     <t>000112</t>
   </si>
   <si>
-    <t>台東2丁目</t>
-  </si>
-  <si>
     <t>000113</t>
   </si>
   <si>
-    <t>台東3丁目</t>
-  </si>
-  <si>
     <t>000114</t>
   </si>
   <si>
@@ -121,78 +106,42 @@
     <t>000131</t>
   </si>
   <si>
-    <t>浅草橋1丁目</t>
-  </si>
-  <si>
     <t>000132</t>
   </si>
   <si>
-    <t>浅草橋2丁目</t>
-  </si>
-  <si>
     <t>000133</t>
   </si>
   <si>
-    <t>浅草橋3丁目</t>
-  </si>
-  <si>
     <t>000135</t>
   </si>
   <si>
-    <t>浅草橋5丁目</t>
-  </si>
-  <si>
     <t>000141</t>
   </si>
   <si>
     <t>000142</t>
   </si>
   <si>
-    <t>鳥越2丁目</t>
-  </si>
-  <si>
     <t>000151</t>
   </si>
   <si>
-    <t>蔵前1丁目</t>
-  </si>
-  <si>
     <t>000152</t>
   </si>
   <si>
-    <t>蔵前2丁目</t>
-  </si>
-  <si>
     <t>000154</t>
   </si>
   <si>
-    <t>蔵前4丁目</t>
-  </si>
-  <si>
     <t>000161</t>
   </si>
   <si>
-    <t>小島1丁目</t>
-  </si>
-  <si>
     <t>000162</t>
   </si>
   <si>
-    <t>小島2丁目</t>
-  </si>
-  <si>
     <t>000171</t>
   </si>
   <si>
-    <t>三筋1丁目</t>
-  </si>
-  <si>
     <t>000172</t>
   </si>
   <si>
-    <t>三筋2丁目</t>
-  </si>
-  <si>
     <t>000180</t>
   </si>
   <si>
@@ -205,15 +154,9 @@
     <t>000192</t>
   </si>
   <si>
-    <t>上野2丁目</t>
-  </si>
-  <si>
     <t>000194</t>
   </si>
   <si>
-    <t>上野4丁目</t>
-  </si>
-  <si>
     <t>000195</t>
   </si>
   <si>
@@ -223,42 +166,24 @@
     <t>000202</t>
   </si>
   <si>
-    <t>東上野2丁目</t>
-  </si>
-  <si>
     <t>000203</t>
   </si>
   <si>
-    <t>東上野3丁目</t>
-  </si>
-  <si>
     <t>000204</t>
   </si>
   <si>
-    <t>東上野4丁目</t>
-  </si>
-  <si>
     <t>000205</t>
   </si>
   <si>
-    <t>東上野5丁目</t>
-  </si>
-  <si>
     <t>000211</t>
   </si>
   <si>
-    <t>元浅草1丁目</t>
-  </si>
-  <si>
     <t>000212</t>
   </si>
   <si>
     <t>000213</t>
   </si>
   <si>
-    <t>元浅草3丁目</t>
-  </si>
-  <si>
     <t>000214</t>
   </si>
   <si>
@@ -268,209 +193,295 @@
     <t>000223</t>
   </si>
   <si>
-    <t>寿3丁目</t>
-  </si>
-  <si>
     <t>000224</t>
   </si>
   <si>
-    <t>寿4丁目</t>
-  </si>
-  <si>
     <t>000231</t>
   </si>
   <si>
-    <t>駒形1丁目</t>
-  </si>
-  <si>
     <t>000241</t>
   </si>
   <si>
-    <t>北上野1丁目</t>
-  </si>
-  <si>
     <t>000242</t>
   </si>
   <si>
-    <t>北上野2丁目</t>
-  </si>
-  <si>
     <t>000251</t>
   </si>
   <si>
-    <t>下谷1丁目</t>
-  </si>
-  <si>
     <t>000252</t>
-  </si>
-  <si>
-    <t>下谷2丁目</t>
-  </si>
-  <si>
-    <t>記是n乙gJ</t>
   </si>
   <si>
     <t>000121</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>台東4丁目</t>
+    <t>000134</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>000153</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>000193</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>000197</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>000200</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>000206</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>000221</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>000232</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>000253</t>
+  </si>
+  <si>
+    <t>100歳~104歳</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>105歳~109歳</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>110歳~114歳</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>115歳~119歳</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>120歳以上</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>台東１丁目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>台東２丁目</t>
+  </si>
+  <si>
+    <t>台東３丁目</t>
+  </si>
+  <si>
+    <t>台東４丁目</t>
+  </si>
+  <si>
+    <t>柳橋１丁目</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヤナギバシ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>柳橋２丁目</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヤナギバシ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>浅草橋１丁目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>浅草橋２丁目</t>
+  </si>
+  <si>
+    <t>浅草橋３丁目</t>
+  </si>
+  <si>
+    <t>浅草橋４丁目</t>
+  </si>
+  <si>
+    <t>浅草橋５丁目</t>
+  </si>
+  <si>
+    <t>鳥越１丁目</t>
     <rPh sb="3" eb="5">
       <t xml:space="preserve">チョウメ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>柳橋2丁目</t>
+    <t>鳥越２丁目</t>
     <rPh sb="3" eb="5">
       <t xml:space="preserve">チョウメ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>柳橋1丁目</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ヤナギバシ </t>
-    </rPh>
+    <t>蔵前１丁目</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>浅草橋4丁目</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">アサクサバシ </t>
-    </rPh>
+    <t>蔵前２丁目</t>
+  </si>
+  <si>
+    <t>蔵前３丁目</t>
+  </si>
+  <si>
+    <t>蔵前４丁目</t>
+  </si>
+  <si>
+    <t>小島１丁目</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>000134</t>
+    <t>小島２丁目</t>
+  </si>
+  <si>
+    <t>三筋１丁目</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>鳥越1丁目</t>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">チョウメ </t>
-    </rPh>
+    <t>三筋２丁目</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>000153</t>
+    <t>上野１丁目</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>蔵前3丁目</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">クラマエ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>上野1丁目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>000193</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>上野3丁目</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ウエノ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>上野5丁目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>上野6丁目</t>
-    <rPh sb="4" eb="5">
-      <t xml:space="preserve">メ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>000197</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>上野7丁目</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ウエノ７チョウメ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>000200</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>東上野1丁目</t>
+    <t>上野２丁目</t>
+  </si>
+  <si>
+    <t>上野３丁目</t>
+  </si>
+  <si>
+    <t>上野４丁目</t>
+  </si>
+  <si>
+    <t>上野５丁目</t>
+  </si>
+  <si>
+    <t>上野６丁目</t>
+  </si>
+  <si>
+    <t>上野７丁目</t>
+  </si>
+  <si>
+    <t>東上野１丁目</t>
     <rPh sb="0" eb="3">
       <t xml:space="preserve">ヒガシウエノ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>000206</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>東上野6丁目</t>
-    <rPh sb="0" eb="1">
+    <t>東上野２丁目</t>
+    <rPh sb="0" eb="3">
       <t xml:space="preserve">ヒガシウエノ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>元浅草2丁目</t>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">チョウメ </t>
+    <t>東上野３丁目</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ヒガシウエノ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>元浅草4丁目</t>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">チョウメ </t>
+    <t>東上野４丁目</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ヒガシウエノ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>000221</t>
+    <t>東上野５丁目</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ヒガシウエノ </t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>寿1丁目</t>
+    <t>東上野６丁目</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ヒガシウエノ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>元浅草１丁目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>元浅草２丁目</t>
+  </si>
+  <si>
+    <t>元浅草３丁目</t>
+  </si>
+  <si>
+    <t>元浅草４丁目</t>
+  </si>
+  <si>
+    <t>寿１丁目</t>
     <rPh sb="0" eb="1">
       <t xml:space="preserve">コトブキ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>寿2丁目</t>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">チョウメ </t>
+    <t>寿２丁目</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">コトブキ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>000232</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>駒形2丁目</t>
+    <t>寿３丁目</t>
     <rPh sb="0" eb="1">
-      <t xml:space="preserve">コマガタ </t>
+      <t xml:space="preserve">コトブキ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>下谷3丁目</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">シモタニ３チョウメ </t>
+    <t>寿４丁目</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">コトブキ </t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>駒形１丁目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>駒形２丁目</t>
+  </si>
+  <si>
+    <t>北上野１丁目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北上野２丁目</t>
+  </si>
+  <si>
+    <t>下谷１丁目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下谷２丁目</t>
+  </si>
+  <si>
+    <t>下谷３丁目</t>
   </si>
 </sst>
 </file>
@@ -478,7 +489,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -547,7 +558,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -850,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y51"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:Y51"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -862,7 +873,7 @@
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:27">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -930,21 +941,27 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="C2" s="4">
         <v>60</v>
@@ -1015,13 +1032,19 @@
       <c r="Y2" s="4">
         <v>0</v>
       </c>
+      <c r="Z2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:27">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C3" s="4">
         <v>82</v>
@@ -1092,13 +1115,19 @@
       <c r="Y3" s="4">
         <v>0</v>
       </c>
+      <c r="Z3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:27">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C4" s="4">
         <v>96</v>
@@ -1169,13 +1198,19 @@
       <c r="Y4" s="4">
         <v>0</v>
       </c>
+      <c r="Z4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:27">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C5" s="4">
         <v>37</v>
@@ -1246,13 +1281,19 @@
       <c r="Y5" s="4">
         <v>0</v>
       </c>
+      <c r="Z5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:27">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C6" s="4">
         <v>29</v>
@@ -1323,13 +1364,19 @@
       <c r="Y6" s="4">
         <v>0</v>
       </c>
+      <c r="Z6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:27">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C7" s="4">
         <v>93</v>
@@ -1400,13 +1447,19 @@
       <c r="Y7" s="4">
         <v>0</v>
       </c>
+      <c r="Z7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:27">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C8" s="4">
         <v>23</v>
@@ -1477,13 +1530,19 @@
       <c r="Y8" s="4">
         <v>0</v>
       </c>
+      <c r="Z8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:27">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C9" s="4">
         <v>49</v>
@@ -1554,13 +1613,19 @@
       <c r="Y9" s="4">
         <v>0</v>
       </c>
+      <c r="Z9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:27">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C10" s="4">
         <v>71</v>
@@ -1631,13 +1696,19 @@
       <c r="Y10" s="4">
         <v>0</v>
       </c>
+      <c r="Z10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:27">
       <c r="A11" s="2" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C11" s="4">
         <v>14</v>
@@ -1708,13 +1779,19 @@
       <c r="Y11" s="4">
         <v>0</v>
       </c>
+      <c r="Z11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:27">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="C12" s="4">
         <v>92</v>
@@ -1785,13 +1862,19 @@
       <c r="Y12" s="4">
         <v>0</v>
       </c>
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:27">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C13" s="4">
         <v>68</v>
@@ -1862,13 +1945,19 @@
       <c r="Y13" s="4">
         <v>0</v>
       </c>
+      <c r="Z13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:27">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="C14" s="4">
         <v>38</v>
@@ -1939,13 +2028,19 @@
       <c r="Y14" s="4">
         <v>0</v>
       </c>
+      <c r="Z14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:27">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="C15" s="4">
         <v>45</v>
@@ -2016,13 +2111,19 @@
       <c r="Y15" s="4">
         <v>0</v>
       </c>
+      <c r="Z15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:27">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C16" s="4">
         <v>95</v>
@@ -2093,13 +2194,19 @@
       <c r="Y16" s="4">
         <v>0</v>
       </c>
+      <c r="Z16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:27">
       <c r="A17" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C17" s="4">
         <v>50</v>
@@ -2170,13 +2277,19 @@
       <c r="Y17" s="4">
         <v>0</v>
       </c>
+      <c r="Z17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:27">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C18" s="4">
         <v>142</v>
@@ -2247,13 +2360,19 @@
       <c r="Y18" s="4">
         <v>0</v>
       </c>
+      <c r="Z18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:27">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C19" s="4">
         <v>48</v>
@@ -2324,13 +2443,19 @@
       <c r="Y19" s="4">
         <v>0</v>
       </c>
+      <c r="Z19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:27">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="C20" s="4">
         <v>39</v>
@@ -2401,13 +2526,19 @@
       <c r="Y20" s="4">
         <v>0</v>
       </c>
+      <c r="Z20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:27">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C21" s="4">
         <v>78</v>
@@ -2475,14 +2606,22 @@
       <c r="X21" s="4">
         <v>0</v>
       </c>
-      <c r="Y21" s="4"/>
+      <c r="Y21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:27">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C22" s="4">
         <v>81</v>
@@ -2553,13 +2692,19 @@
       <c r="Y22" s="4">
         <v>0</v>
       </c>
+      <c r="Z22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:27">
       <c r="A23" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C23" s="4">
         <v>2</v>
@@ -2630,13 +2775,19 @@
       <c r="Y23" s="4">
         <v>0</v>
       </c>
+      <c r="Z23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:27">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C24" s="4">
         <v>10</v>
@@ -2707,13 +2858,19 @@
       <c r="Y24" s="4">
         <v>0</v>
       </c>
+      <c r="Z24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:27">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -2784,13 +2941,19 @@
       <c r="Y25" s="4">
         <v>0</v>
       </c>
+      <c r="Z25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:27">
       <c r="A26" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C26" s="4">
         <v>13</v>
@@ -2861,13 +3024,19 @@
       <c r="Y26" s="4">
         <v>0</v>
       </c>
+      <c r="Z26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:27">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="C27" s="4">
         <v>2</v>
@@ -2938,13 +3107,19 @@
       <c r="Y27" s="4">
         <v>0</v>
       </c>
+      <c r="Z27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:27">
       <c r="A28" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C28" s="4">
         <v>7</v>
@@ -3015,13 +3190,19 @@
       <c r="Y28" s="4">
         <v>0</v>
       </c>
+      <c r="Z28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:27">
       <c r="A29" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C29" s="4">
         <v>2</v>
@@ -3092,13 +3273,19 @@
       <c r="Y29" s="4">
         <v>0</v>
       </c>
+      <c r="Z29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:27">
       <c r="A30" s="2" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C30" s="4">
         <v>37</v>
@@ -3169,13 +3356,19 @@
       <c r="Y30" s="4">
         <v>0</v>
       </c>
+      <c r="Z30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:27">
       <c r="A31" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C31" s="4">
         <v>39</v>
@@ -3246,13 +3439,19 @@
       <c r="Y31" s="4">
         <v>0</v>
       </c>
+      <c r="Z31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:27">
       <c r="A32" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C32" s="4">
         <v>17</v>
@@ -3323,13 +3522,19 @@
       <c r="Y32" s="4">
         <v>0</v>
       </c>
+      <c r="Z32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:27">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C33" s="4">
         <v>53</v>
@@ -3400,13 +3605,19 @@
       <c r="Y33" s="4">
         <v>0</v>
       </c>
+      <c r="Z33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:27">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="C34" s="4">
         <v>30</v>
@@ -3477,13 +3688,19 @@
       <c r="Y34" s="4">
         <v>0</v>
       </c>
+      <c r="Z34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:27">
       <c r="A35" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="C35" s="4">
         <v>94</v>
@@ -3554,13 +3771,19 @@
       <c r="Y35" s="4">
         <v>0</v>
       </c>
+      <c r="Z35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:27">
       <c r="A36" s="2" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C36" s="4">
         <v>74</v>
@@ -3631,13 +3854,19 @@
       <c r="Y36" s="4">
         <v>0</v>
       </c>
+      <c r="Z36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:27">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="C37" s="4">
         <v>71</v>
@@ -3708,13 +3937,19 @@
       <c r="Y37" s="4">
         <v>0</v>
       </c>
+      <c r="Z37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:27">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C38" s="4">
         <v>32</v>
@@ -3785,13 +4020,19 @@
       <c r="Y38" s="4">
         <v>0</v>
       </c>
+      <c r="Z38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:27">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="C39" s="4">
         <v>95</v>
@@ -3862,13 +4103,19 @@
       <c r="Y39" s="4">
         <v>0</v>
       </c>
+      <c r="Z39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:27">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C40" s="4">
         <v>59</v>
@@ -3939,13 +4186,19 @@
       <c r="Y40" s="4">
         <v>0</v>
       </c>
+      <c r="Z40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:27">
       <c r="A41" s="2" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C41" s="4">
         <v>61</v>
@@ -4016,13 +4269,19 @@
       <c r="Y41" s="4">
         <v>0</v>
       </c>
+      <c r="Z41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:27">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C42" s="4">
         <v>52</v>
@@ -4093,13 +4352,19 @@
       <c r="Y42" s="4">
         <v>0</v>
       </c>
+      <c r="Z42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:27">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="C43" s="4">
         <v>88</v>
@@ -4170,13 +4435,19 @@
       <c r="Y43" s="4">
         <v>0</v>
       </c>
+      <c r="Z43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:27">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="C44" s="4">
         <v>35</v>
@@ -4247,13 +4518,19 @@
       <c r="Y44" s="4">
         <v>0</v>
       </c>
+      <c r="Z44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:27">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="C45" s="4">
         <v>71</v>
@@ -4324,13 +4601,19 @@
       <c r="Y45" s="4">
         <v>0</v>
       </c>
+      <c r="Z45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:27">
       <c r="A46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" t="s">
         <v>121</v>
-      </c>
-      <c r="B46" t="s">
-        <v>122</v>
       </c>
       <c r="C46" s="4">
         <v>22</v>
@@ -4401,13 +4684,19 @@
       <c r="Y46" s="4">
         <v>0</v>
       </c>
+      <c r="Z46" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:27">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C47" s="4">
         <v>51</v>
@@ -4478,13 +4767,19 @@
       <c r="Y47" s="4">
         <v>0</v>
       </c>
+      <c r="Z47" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:27">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="C48" s="4">
         <v>94</v>
@@ -4555,13 +4850,19 @@
       <c r="Y48" s="4">
         <v>0</v>
       </c>
+      <c r="Z48" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:27">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C49" s="4">
         <v>47</v>
@@ -4632,13 +4933,19 @@
       <c r="Y49" s="4">
         <v>0</v>
       </c>
+      <c r="Z49" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:27">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="C50" s="4">
         <v>66</v>
@@ -4709,13 +5016,19 @@
       <c r="Y50" s="4">
         <v>0</v>
       </c>
+      <c r="Z50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:27">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C51" s="4">
         <v>60</v>
@@ -4784,6 +5097,12 @@
         <v>0</v>
       </c>
       <c r="Y51" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="4">
         <v>0</v>
       </c>
     </row>
